--- a/new-stats/luton-town-fc.xlsx
+++ b/new-stats/luton-town-fc.xlsx
@@ -3068,22 +3068,62 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>26/04/2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M46" t="n">
+        <v>23</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="n">
+        <v>8</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>

--- a/new-stats/luton-town-fc.xlsx
+++ b/new-stats/luton-town-fc.xlsx
@@ -3126,22 +3126,62 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>03/05/2025</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M47" t="n">
+        <v>12</v>
+      </c>
+      <c r="N47" t="n">
+        <v>19</v>
+      </c>
+      <c r="O47" t="n">
+        <v>4</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>

--- a/new-stats/luton-town-fc.xlsx
+++ b/new-stats/luton-town-fc.xlsx
@@ -516,22 +516,62 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
